--- a/BaoCao_SystemTest_Sizes.xlsx
+++ b/BaoCao_SystemTest_Sizes.xlsx
@@ -38,22 +38,22 @@
     <t>ST_SIZE_01</t>
   </si>
   <si>
-    <t>Thêm Size XXL Mới</t>
+    <t>Thêm Size Mới</t>
   </si>
   <si>
     <t>1. Dashboard -&gt; Menu Quản lý SP -&gt; Kích cỡ
 2. Click Thêm Size
-3. Nhập 'XXL_2112'
+3. Nhập 'XXL_2795'
 4. Lưu</t>
   </si>
   <si>
-    <t>Input: XXL_2112</t>
+    <t>Input: XXL_2795</t>
   </si>
   <si>
     <t>Size mới xuất hiện trong danh sách</t>
   </si>
   <si>
-    <t>Tìm thấy size 'XXL_2112': true</t>
+    <t>Tìm thấy size 'XXL_2795': true</t>
   </si>
   <si>
     <t>PASS</t>
@@ -65,16 +65,16 @@
     <t>Sửa tên Size</t>
   </si>
   <si>
-    <t>1. Tìm size 'XXL_2112'
+    <t>1. Tìm size 'XXL_2795'
 2. Click Sửa
-3. Đổi thành 'XXL_Updated_2112'
+3. Đổi thành 'XXL_Updated_2795'
 4. Lưu</t>
   </si>
   <si>
-    <t>Old: XXL_2112 -&gt; New: XXL_Updated_2112</t>
-  </si>
-  <si>
-    <t>Tên size được cập nhật thành công</t>
+    <t>Old: XXL_2795 -&gt; New: XXL_Updated_2795</t>
+  </si>
+  <si>
+    <t>Tên size được cập nhật thành công (Tên cũ biến mất)</t>
   </si>
   <si>
     <t>Tìm thấy mới: true | Tìm thấy cũ: false</t>
@@ -86,19 +86,19 @@
     <t>Xóa Size</t>
   </si>
   <si>
-    <t>1. Tìm size 'XXL_Updated_2112'
+    <t>1. Tìm size 'XXL_Updated_2795'
 2. Click Xóa
 3. Xác nhận Alert
 4. Kiểm tra biến mất</t>
   </si>
   <si>
-    <t>Target: XXL_Updated_2112</t>
-  </si>
-  <si>
-    <t>Size bị xóa khỏi danh sách</t>
-  </si>
-  <si>
-    <t>Vẫn tìm thấy size 'XXL_Updated_2112': false</t>
+    <t>Target: XXL_Updated_2795</t>
+  </si>
+  <si>
+    <t>Size bị xóa khỏi danh sách (Không còn tồn tại)</t>
+  </si>
+  <si>
+    <t>Vẫn tìm thấy size 'XXL_Updated_2795': false</t>
   </si>
 </sst>
 </file>
@@ -183,10 +183,10 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.2109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.95703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.15625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="39.56640625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="32.22265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="48.390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="40.62109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
